--- a/simulation_data/one_step_algorithm/1s_error_level_4_percent_water_1.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_4_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.9592228196172</v>
+        <v>90.04516814857512</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5157048750889794</v>
+        <v>0.4736223693732181</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.03808581938316</v>
+        <v>88.97112766235999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4986234586326811</v>
+        <v>0.470256111579375</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.04868313279842</v>
+        <v>87.96681832565393</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5450958329569635</v>
+        <v>0.4828270790974568</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.96940634100417</v>
+        <v>86.96266439105628</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5412360459061892</v>
+        <v>0.5458956601922842</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.90750101814778</v>
+        <v>85.99968163727102</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5260546986777656</v>
+        <v>0.4931689892754378</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.92196234770016</v>
+        <v>85.05709881526629</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4423085831192887</v>
+        <v>0.5139594382149449</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.98943388340327</v>
+        <v>83.92974292056046</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4847891245399039</v>
+        <v>0.5343905746506982</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.05462356233993</v>
+        <v>83.09697230326708</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5033953426558356</v>
+        <v>0.5082264217607523</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.94461026031968</v>
+        <v>82.07355740612191</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5024105257015101</v>
+        <v>0.5243848127631509</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.98690806110912</v>
+        <v>81.00374947508672</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4935183423770242</v>
+        <v>0.5362307335442899</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.98619119949997</v>
+        <v>80.03398145924952</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4934081953244183</v>
+        <v>0.4492820640119728</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.98743774239561</v>
+        <v>78.92581785144868</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5042117932980712</v>
+        <v>0.5168540948650214</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.07274683152481</v>
+        <v>77.99996858409864</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5204766866523435</v>
+        <v>0.5589637683833621</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.92563017653085</v>
+        <v>77.05289054525284</v>
       </c>
       <c r="D15" t="n">
-        <v>0.468130506556648</v>
+        <v>0.5130901191422733</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.01039446860351</v>
+        <v>75.94811425775428</v>
       </c>
       <c r="D16" t="n">
-        <v>0.444735820738663</v>
+        <v>0.4945034453552023</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.07522391177703</v>
+        <v>74.9541827522722</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4916068040828526</v>
+        <v>0.5470369769694325</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.0114311947375</v>
+        <v>74.07794299822</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4826741383870976</v>
+        <v>0.4635891703665884</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.93650081696197</v>
+        <v>73.00312993629149</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4655574559793071</v>
+        <v>0.5125744211855776</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.01893414885804</v>
+        <v>71.92707581422924</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5356208126312695</v>
+        <v>0.4881439662181926</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.03641875204795</v>
+        <v>70.97559082160694</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5228928472830033</v>
+        <v>0.4771717267610469</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.02545817456587</v>
+        <v>69.96163195358366</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4919006317563049</v>
+        <v>0.5322846406771574</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.07364559927794</v>
+        <v>68.91644069204327</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4701187937090622</v>
+        <v>0.5337782595807471</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.01232719066817</v>
+        <v>68.04047516109887</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4863175059342525</v>
+        <v>0.5316060683453409</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.07812636237472</v>
+        <v>67.08925334607687</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5094288334482339</v>
+        <v>0.5181057590861208</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.93595194837205</v>
+        <v>65.98167855838443</v>
       </c>
       <c r="D26" t="n">
-        <v>0.569060325924847</v>
+        <v>0.5157912702892039</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.02575827163923</v>
+        <v>65.09412411788497</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5434603803194882</v>
+        <v>0.5046362037587545</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.00245315699694</v>
+        <v>64.05636062448917</v>
       </c>
       <c r="D28" t="n">
-        <v>0.516322437263236</v>
+        <v>0.539133918162251</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.99762997232641</v>
+        <v>63.03677192436902</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5003194155372377</v>
+        <v>0.5218869838866563</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.09511913719504</v>
+        <v>61.98712674933583</v>
       </c>
       <c r="D30" t="n">
-        <v>0.545388229555924</v>
+        <v>0.4727991933479996</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.02313761766059</v>
+        <v>60.98005173724889</v>
       </c>
       <c r="D31" t="n">
-        <v>0.490419421564282</v>
+        <v>0.4855764676583198</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.97640561599885</v>
+        <v>60.0333782796401</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4894870680920125</v>
+        <v>0.5116010452395908</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.04218356974258</v>
+        <v>58.89630994917317</v>
       </c>
       <c r="D33" t="n">
-        <v>0.495191276780147</v>
+        <v>0.477806674255864</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.00963933226961</v>
+        <v>57.94037042085723</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5073025107246528</v>
+        <v>0.520403470493867</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.00256323295402</v>
+        <v>56.98578623190194</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4894227730221377</v>
+        <v>0.5123992255042265</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.04927039616118</v>
+        <v>55.98815805701182</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4431409640126579</v>
+        <v>0.494294106106565</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.93037478566885</v>
+        <v>55.0224669407045</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4764528422523038</v>
+        <v>0.4955127391597699</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.90391942833286</v>
+        <v>54.01371103644836</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5322598942566945</v>
+        <v>0.4565625342836161</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.05844643681396</v>
+        <v>52.97649646093714</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5011189630401939</v>
+        <v>0.5017027258839377</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.9092785202013</v>
+        <v>52.00923552554388</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5392081470953042</v>
+        <v>0.5708549799349945</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.04678320213502</v>
+        <v>50.97391794070322</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5688974248853793</v>
+        <v>0.513669013630244</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.00311224072584</v>
+        <v>50.01802693979529</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4389245476322699</v>
+        <v>0.5450175141723256</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.05276240492447</v>
+        <v>49.10916666438987</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4164518648204503</v>
+        <v>0.4615394790599386</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.94496303004917</v>
+        <v>47.9369270537214</v>
       </c>
       <c r="D44" t="n">
-        <v>0.519602654102908</v>
+        <v>0.4629713432476764</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.01698113291305</v>
+        <v>47.00824067096661</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5045270875065169</v>
+        <v>0.4611560222486075</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.03966622858573</v>
+        <v>45.98226048932752</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4929238110666484</v>
+        <v>0.4733629337947999</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.92904234898583</v>
+        <v>45.07740702807054</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5168934164789369</v>
+        <v>0.4115553803461967</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.95034887164171</v>
+        <v>44.0299979781046</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4412549408396348</v>
+        <v>0.469198583595864</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.98310457103376</v>
+        <v>43.01408402163987</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4822864838553028</v>
+        <v>0.5121128549404075</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.04380982893633</v>
+        <v>42.01727628640072</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4857010759676056</v>
+        <v>0.4883875959002658</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.01942815546242</v>
+        <v>41.00473701385864</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5101728466517418</v>
+        <v>0.5653429971322225</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.06990991668585</v>
+        <v>40.01608883801733</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4766915137828784</v>
+        <v>0.4716680265099365</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.97852314343515</v>
+        <v>39.120798087863</v>
       </c>
       <c r="D53" t="n">
-        <v>0.482191420492763</v>
+        <v>0.4921284039246845</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.08803337519733</v>
+        <v>37.93523558717717</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5059612540534864</v>
+        <v>0.5095542581437305</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.05646410693499</v>
+        <v>37.00694639442274</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4655079706596664</v>
+        <v>0.4943513076308773</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.97880412560434</v>
+        <v>35.98191965119781</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4637186861765318</v>
+        <v>0.4410492536472593</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.9656879321394</v>
+        <v>34.94918133821141</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4794639295364228</v>
+        <v>0.4690783921715208</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.99183812957352</v>
+        <v>34.04228994249496</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4132737094562292</v>
+        <v>0.4413955794314232</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.13733199990765</v>
+        <v>32.99696887817449</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4466428977189184</v>
+        <v>0.4439042612131754</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.04279697960499</v>
+        <v>32.09973307269902</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5317767858252141</v>
+        <v>0.5181962399462733</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.00294508370463</v>
+        <v>31.05917496960382</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4526902333817961</v>
+        <v>0.4599064600892929</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.02779352764985</v>
+        <v>30.02888738582737</v>
       </c>
       <c r="D62" t="n">
-        <v>0.466002048975196</v>
+        <v>0.4706515629608717</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.04062070111056</v>
+        <v>29.05749935374787</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4097161101616589</v>
+        <v>0.4637773019569627</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.06162409465243</v>
+        <v>27.90815279708208</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4771342653050155</v>
+        <v>0.4640656105284499</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.97846355217832</v>
+        <v>26.98972540413346</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4368376368513152</v>
+        <v>0.4791279377591143</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.01386471857113</v>
+        <v>25.96649377515744</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4800144665217193</v>
+        <v>0.5001079621074732</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.08848711574954</v>
+        <v>25.00868984536376</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5091583274472606</v>
+        <v>0.4262824289857517</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.03392338738708</v>
+        <v>23.95051575868387</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4111071335951351</v>
+        <v>0.5240021188431205</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.01081557282773</v>
+        <v>22.99808936309981</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4723067972440224</v>
+        <v>0.4394099728745314</v>
       </c>
     </row>
   </sheetData>
